--- a/official-minecraftpe.xlsx
+++ b/official-minecraftpe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myth1\OneDrive\Desktop\Project\Project-ipa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40471447-E2B0-4719-B092-3C19A3EE8DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854B7000-4247-4970-8A25-059A38511B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="211">
   <si>
     <t>Version</t>
   </si>
@@ -498,6 +498,174 @@
   </si>
   <si>
     <t>Baidu Netdisk &lt;br&gt; (Password 1234)</t>
+  </si>
+  <si>
+    <t>0.11.1</t>
+  </si>
+  <si>
+    <t>0.12.1</t>
+  </si>
+  <si>
+    <t>0.12.2</t>
+  </si>
+  <si>
+    <t>0.12.3</t>
+  </si>
+  <si>
+    <t>0.13.0</t>
+  </si>
+  <si>
+    <t>0.13.2</t>
+  </si>
+  <si>
+    <t>0.13.1</t>
+  </si>
+  <si>
+    <t>0.14.0</t>
+  </si>
+  <si>
+    <t>0.14.1</t>
+  </si>
+  <si>
+    <t>0.14.2</t>
+  </si>
+  <si>
+    <t>0.14.3</t>
+  </si>
+  <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://a-randomm-user.github.io/IPA-save/onlineDownload/official-minecraftpe-479516143/0.11.1.plist</t>
+  </si>
+  <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://a-randomm-user.github.io/IPA-save/onlineDownload/official-minecraftpe-479516143/0.12.1.plist</t>
+  </si>
+  <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://a-randomm-user.github.io/IPA-save/onlineDownload/official-minecraftpe-479516143/0.12.2.plist</t>
+  </si>
+  <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://a-randomm-user.github.io/IPA-save/onlineDownload/official-minecraftpe-479516143/0.12.3.plist</t>
+  </si>
+  <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://a-randomm-user.github.io/IPA-save/onlineDownload/official-minecraftpe-479516143/0.13.0.plist</t>
+  </si>
+  <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://a-randomm-user.github.io/IPA-save/onlineDownload/official-minecraftpe-479516143/0.13.1.plist</t>
+  </si>
+  <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://a-randomm-user.github.io/IPA-save/onlineDownload/official-minecraftpe-479516143/0.13.2.plist</t>
+  </si>
+  <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://a-randomm-user.github.io/IPA-save/onlineDownload/official-minecraftpe-479516143/0.14.0.plist</t>
+  </si>
+  <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://a-randomm-user.github.io/IPA-save/onlineDownload/official-minecraftpe-479516143/0.14.1.plist</t>
+  </si>
+  <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://a-randomm-user.github.io/IPA-save/onlineDownload/official-minecraftpe-479516143/0.14.2.plist</t>
+  </si>
+  <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://a-randomm-user.github.io/IPA-save/onlineDownload/official-minecraftpe-479516143/0.14.3.plist</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1ScIitF3I8JFaNwvrUOXIcw</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1Q0jZ1ik8YA-z2mPK36m27g</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1Es2qoNfp_5m4sHjvAjyrwQ</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1C2RP9w5PEs-qBLfamNgd4Q</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1BMFqPdLH04eA1POmCSJTAA</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1cPc8M1lNvVGk1DnEtyEQfQ</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1-ydzeURcG0xnqWl7yJUDNg</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1kONenWQB7Lu85kvIL3NhmA</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1N1hunejEAW36wKhC_oz--A</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1GMCvPZoPfKdcL63I4cWFIg</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1RSPqbbreHes2v0dciYJQwQ</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1ftvebLUR0LP3eDUMbbhrJA?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/13zXnOgz7ImgFBZWOyIqxqw?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1xSlOcZ0pHcm7I8igdpoTTA?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1vOO0uWUFa5a7KqxepWDQuQ?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1BL2ZlbUl2h4Iw6qixGM7GQ?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1XGN0jmkxP6lkWWiyEfYXeg?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1jbahMQ7EsdrJ7WuN2rkY2w?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1Egpj2wdSp7jEW5tm_mF4aw?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1znOJYIBG9tMQe2YO0SNPTg?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/11LtJ1MstR6qqrX7YYSST0A?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1lUNp7XUkn7z77WVpmn6iOA?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/IPA-save/releases/download/Minecraft-PE-Official/Minecraft.PE.0.11.1.ipa</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/IPA-save/releases/download/Minecraft-PE-Official/Minecraft.PE.0.12.1.ipa</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/IPA-save/releases/download/Minecraft-PE-Official/Minecraft.PE.0.12.2.ipa</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/IPA-save/releases/download/Minecraft-PE-Official/Minecraft.PE.0.12.3.ipa</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/IPA-save/releases/download/Minecraft-PE-Official/Minecraft.PE.0.13.0.ipa</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/IPA-save/releases/download/Minecraft-PE-Official/Minecraft.PE.0.13.1.ipa</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/IPA-save/releases/download/Minecraft-PE-Official/Minecraft.PE.0.13.2.ipa</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/IPA-save/releases/download/Minecraft-PE-Official/Minecraft.PE.0.14.0.ipa</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/IPA-save/releases/download/Minecraft-PE-Official/Minecraft.PE.0.14.1.ipa</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/IPA-save/releases/download/Minecraft-PE-Official/Minecraft.PE.0.14.2.ipa</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/IPA-save/releases/download/Minecraft-PE-Official/Minecraft.PE.0.14.3.ipa</t>
+  </si>
+  <si>
+    <t>iOS 6.0 or above</t>
   </si>
 </sst>
 </file>
@@ -909,11 +1077,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88782FC7-6F7E-9E4F-AEC6-757ED4B54885}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1616,6 +1784,259 @@
       </c>
       <c r="G30" s="2" t="s">
         <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" s="2">
+        <v>812578790</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32" s="2">
+        <v>812580762</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" s="2">
+        <v>813664574</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B34" s="2">
+        <v>813923049</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B35" s="2">
+        <v>814415574</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B36" s="2">
+        <v>815094582</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B37" s="2">
+        <v>816208701</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B38" s="2">
+        <v>816417576</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B39" s="2">
+        <v>816856807</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B40" s="2">
+        <v>817031176</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B41" s="2">
+        <v>817260822</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/official-minecraftpe.xlsx
+++ b/official-minecraftpe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myth1\OneDrive\Desktop\Project\Project-ipa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854B7000-4247-4970-8A25-059A38511B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E82ECBA-DF2B-4DE7-92F7-DEDDDA482F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="334">
   <si>
     <t>Version</t>
   </si>
@@ -666,13 +666,382 @@
   </si>
   <si>
     <t>iOS 6.0 or above</t>
+  </si>
+  <si>
+    <t>0.15.0</t>
+  </si>
+  <si>
+    <t>0.15.2</t>
+  </si>
+  <si>
+    <t>0.15.4</t>
+  </si>
+  <si>
+    <t>0.15.6</t>
+  </si>
+  <si>
+    <t>0.15.7</t>
+  </si>
+  <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://a-randomm-user.github.io/IPA-save/onlineDownload/official-minecraftpe-479516143/0.15.0-817621338.plist</t>
+  </si>
+  <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://a-randomm-user.github.io/IPA-save/onlineDownload/official-minecraftpe-479516143/0.15.0-817650262.plist</t>
+  </si>
+  <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://a-randomm-user.github.io/IPA-save/onlineDownload/official-minecraftpe-479516143/0.15.2.plist</t>
+  </si>
+  <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://a-randomm-user.github.io/IPA-save/onlineDownload/official-minecraftpe-479516143/0.15.4.plist</t>
+  </si>
+  <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://a-randomm-user.github.io/IPA-save/onlineDownload/official-minecraftpe-479516143/0.15.6.plist</t>
+  </si>
+  <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://a-randomm-user.github.io/IPA-save/onlineDownload/official-minecraftpe-479516143/0.15.7.plist</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1lRvyuA2YbS15f4jOD-WFtw</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1IHOtnz7JXaFDlPEtKMmH1Q</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1wOknbf_FWrv1lpo3SXphww</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1alcdlyIGTD2R_KEYJDeNzg</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1iEbUdrv3FJsigae-ODnr-A</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/16-IcZJP1W9gCJQIeQXxzmQ</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1KqaV3-NLYhAOdX8wxHsdug?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/16TWavSleGMfTUEN2J251Yw?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1eDxZagKiMw4p_aA266aVHw?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1w0xL5ROT_u2R3CV0ABlARw?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1nquaXH-st5rHzEs8JJHzpg?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1jbSD_A0awFG7q_Dc-A-YMg?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/IPA-save/releases/download/Minecraft-PE-Official/Minecraft.PE.0.15.0.817621338.ipa</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/IPA-save/releases/download/Minecraft-PE-Official/Minecraft.PE.0.15.0.817650262.ipa</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/IPA-save/releases/download/Minecraft-PE-Official/Minecraft.PE.0.15.2.ipa</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/IPA-save/releases/download/Minecraft-PE-Official/Minecraft.PE.0.15.4.ipa</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/IPA-save/releases/download/Minecraft-PE-Official/Minecraft.PE.0.15.6.ipa</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/IPA-save/releases/download/Minecraft-PE-Official/Minecraft.PE.0.15.7.ipa</t>
+  </si>
+  <si>
+    <t>iOS 8.0 or above</t>
+  </si>
+  <si>
+    <t>0.15.8</t>
+  </si>
+  <si>
+    <t>0.15.9</t>
+  </si>
+  <si>
+    <t>0.15.10</t>
+  </si>
+  <si>
+    <t>0.16.0</t>
+  </si>
+  <si>
+    <t>0.16.1</t>
+  </si>
+  <si>
+    <t>0.16.2</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>1.0.2</t>
+  </si>
+  <si>
+    <t>1.0.3</t>
+  </si>
+  <si>
+    <t>1.0.4</t>
+  </si>
+  <si>
+    <t>1.0.5</t>
+  </si>
+  <si>
+    <t>1.0.6</t>
+  </si>
+  <si>
+    <t>1.0.7</t>
+  </si>
+  <si>
+    <t>1.0.8</t>
+  </si>
+  <si>
+    <t>1.0.9</t>
+  </si>
+  <si>
+    <t>1.1.0</t>
+  </si>
+  <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://a-randomm-user.github.io/IPA-save/onlineDownload/official-minecraftpe-479516143/0.15.8.plist</t>
+  </si>
+  <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://a-randomm-user.github.io/IPA-save/onlineDownload/official-minecraftpe-479516143/0.15.9.plist</t>
+  </si>
+  <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://a-randomm-user.github.io/IPA-save/onlineDownload/official-minecraftpe-479516143/0.15.10.plist</t>
+  </si>
+  <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://a-randomm-user.github.io/IPA-save/onlineDownload/official-minecraftpe-479516143/0.16.0-819299060.plist</t>
+  </si>
+  <si>
+    <t>1.0.1</t>
+  </si>
+  <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://a-randomm-user.github.io/IPA-save/onlineDownload/official-minecraftpe-479516143/1.0.1.plist</t>
+  </si>
+  <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://a-randomm-user.github.io/IPA-save/onlineDownload/official-minecraftpe-479516143/1.0.8.plist</t>
+  </si>
+  <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://a-randomm-user.github.io/IPA-save/onlineDownload/official-minecraftpe-479516143/1.0.7.plist</t>
+  </si>
+  <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://a-randomm-user.github.io/IPA-save/onlineDownload/official-minecraftpe-479516143/1.0.9.plist</t>
+  </si>
+  <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://a-randomm-user.github.io/IPA-save/onlineDownload/official-minecraftpe-479516143/1.1.0.plist</t>
+  </si>
+  <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://a-randomm-user.github.io/IPA-save/onlineDownload/official-minecraftpe-479516143/1.0.6.plist</t>
+  </si>
+  <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://a-randomm-user.github.io/IPA-save/onlineDownload/official-minecraftpe-479516143/0.16.0-819347371.plist</t>
+  </si>
+  <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://a-randomm-user.github.io/IPA-save/onlineDownload/official-minecraftpe-479516143/0.16.1.plist</t>
+  </si>
+  <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://a-randomm-user.github.io/IPA-save/onlineDownload/official-minecraftpe-479516143/0.16.2.plist</t>
+  </si>
+  <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://a-randomm-user.github.io/IPA-save/onlineDownload/official-minecraftpe-479516143/1.0.0.plist</t>
+  </si>
+  <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://a-randomm-user.github.io/IPA-save/onlineDownload/official-minecraftpe-479516143/1.0.2.plist</t>
+  </si>
+  <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://a-randomm-user.github.io/IPA-save/onlineDownload/official-minecraftpe-479516143/1.0.3.plist</t>
+  </si>
+  <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://a-randomm-user.github.io/IPA-save/onlineDownload/official-minecraftpe-479516143/1.0.4.plist</t>
+  </si>
+  <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://a-randomm-user.github.io/IPA-save/onlineDownload/official-minecraftpe-479516143/1.0.5-821419615.plist</t>
+  </si>
+  <si>
+    <t>itms-services://?action=download-manifest&amp;url=https://a-randomm-user.github.io/IPA-save/onlineDownload/official-minecraftpe-479516143/1.0.5-821483675.plist</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1yYhNQZTPBEqkxoCSRiTN-g</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1vvmc377-O24HSFUBYyFmUg</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1EdemJtpEUqxUK3ZZ6KT2QA</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1P5Bf-UuS0VGGTRYo2yw7cA</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1He8SMYeMYY4QNkWlgTg2xw</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1iF5-U2ZAD02APzl0kBLEKw?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1VwQzmxhUpFb1U1UfsOp41w?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1pOhQTCF2anOTwlrk3aYzuQ?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1I-VEbfayRsk9XBzTNYUYaQ?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1MR1h1rYBRydhSek3Ie3ywQ?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1R41NPXpyA9ZqGYxnxh3Fmw</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1LaNlqRpumFoiytgmxRUVCA</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/17_7qfe8i3l0P60aGOyDt2A</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1gSVq4pTDT4E8IxqrzlcFKQ</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1RPn0JEp4oziT7qBtlqz8LQ</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1ws3MRlfLHIXPNEHyhR9H0g</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/17ZggDAyMmSRejpMMTriIzQ</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1Pk8qnl6tFBKY6IFCd4QcZQ</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1sBHef7-Z0F-pLHt41rza-w</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/16oqw8VAvLX1Xl3E1rZ0_cQ</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1DUWKJKljyE8fFB1WZH3hnQ</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1A9VhVGZyptofg82HVok17g</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1X315_fnSWqlUhZN4pm01EQ</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1-HfUSVWlTlMPE2ernVV_dQ</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1q9zjif4447e2n4FsBdlCEA?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/11T0iceT_Nn3912ocCKjuqQ?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1qQnSyn7rwPeUq1KNN8z5_w?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1e7ixk8-iR30UwQcG7n5G3A?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1ix4SNXXgpqWxvlJJuB0img?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1PbZmUYg0H9kVxaY0i1girQ?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1lNpBdZXibfgbnvon2zpacA?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1H-4CodnL65IErsHXovvgog?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1IoxGxKNvOXbj5PewqejiQg?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1ABSlvQzmikJ5v-qDqWIkKQ?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1cECbbD99Qx-kgbd1wcvryQ?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1Cq-Sh741TwM8ZuYWXaof1w?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1Cdzr3dinY31Z3LCkf99YXg?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1K411cp2sKaAMwuK0puR0iA?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/IPA-save/releases/download/Minecraft-PE-Official/Minecraft.PE.0.15.8.ipa</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/IPA-save/releases/download/Minecraft-PE-Official/Minecraft.PE.0.15.9.ipa</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/IPA-save/releases/download/Minecraft-PE-Official/Minecraft.PE.0.15.10.ipa</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/IPA-save/releases/download/Minecraft-PE-Official/Minecraft.PE.0.16.0.819299060.ipa</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/IPA-save/releases/download/Minecraft-PE-Official/Minecraft.PE.0.16.0.819347371.ipa</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/IPA-save/releases/download/Minecraft-PE-Official/Minecraft.PE.0.16.1.ipa</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/IPA-save/releases/download/Minecraft-PE-Official/Minecraft.PE.0.16.2.ipa</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/IPA-save/releases/download/Minecraft-PE-Official/Minecraft.PE.1.0.0.ipa</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/IPA-save/releases/download/Minecraft-PE-Official/Minecraft.PE.1.0.1.ipa</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/IPA-save/releases/download/Minecraft-PE-Official/Minecraft.PE.1.0.2.ipa</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/IPA-save/releases/download/Minecraft-PE-Official/Minecraft.PE.1.0.3.ipa</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/IPA-save/releases/download/Minecraft-PE-Official/Minecraft.PE.1.0.4.ipa</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/IPA-save/releases/download/Minecraft-PE-Official/Minecraft.PE.1.0.5.821419615.ipa</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/IPA-save/releases/download/Minecraft-PE-Official/Minecraft.PE.1.0.5.821483675.ipa</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/IPA-save/releases/download/Minecraft-PE-Official/Minecraft.PE.1.0.6.ipa</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/IPA-save/releases/download/Minecraft-PE-Official/Minecraft.PE.1.0.7.ipa</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/IPA-save/releases/download/Minecraft-PE-Official/Minecraft.PE.1.0.8.ipa</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/IPA-save/releases/download/Minecraft-PE-Official/Minecraft.PE.1.0.9.ipa</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/IPA-save/releases/download/Minecraft-PE-Official/Minecraft.PE.1.1.0.ipa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -713,6 +1082,12 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -735,13 +1110,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1077,21 +1453,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88782FC7-6F7E-9E4F-AEC6-757ED4B54885}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="5"/>
     <col min="2" max="2" width="10.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="131.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="140.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51.90625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="58.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="96.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="105.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="63.08984375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.7265625" style="2"/>
   </cols>
@@ -2037,6 +2413,581 @@
       </c>
       <c r="G41" s="2" t="s">
         <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B42" s="2">
+        <v>817621338</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B43" s="2">
+        <v>817650262</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B44" s="2">
+        <v>818030579</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B45" s="2">
+        <v>818269188</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B46" s="2">
+        <v>818416822</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B47" s="2">
+        <v>818662472</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B48" s="2">
+        <v>818878159</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B49" s="2">
+        <v>818970426</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B50" s="2">
+        <v>819101845</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B51" s="2">
+        <v>819299060</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B52" s="2">
+        <v>819347371</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B53" s="2">
+        <v>819581582</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B54" s="2">
+        <v>819769023</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B55" s="2">
+        <v>819936072</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B56" s="2">
+        <v>820418889</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B57" s="2">
+        <v>820458571</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B58" s="2">
+        <v>820823760</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B59" s="2">
+        <v>821202098</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B60" s="2">
+        <v>821419615</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B61" s="2">
+        <v>821483675</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B62" s="2">
+        <v>821658757</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B63" s="2">
+        <v>821792989</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B64" s="2">
+        <v>821960382</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B65" s="2">
+        <v>822141552</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B66" s="2">
+        <v>822262458</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
